--- a/pred_ohlcv/54_21/2020-01-19 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 FAB ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-1094679.781275</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1082981.310075</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1110220.090675</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1094897.050875</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-978906.0412947832</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-317527.7476989769</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-335691.4017989769</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-541256.9999989769</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-536647.7371989769</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-351296.077498977</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-434939.4052989769</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-109803.8132139569</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-109899.8235139569</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5504.481086043059</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-40514.81401395694</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-51931.37691395694</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>935794.2994267112</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1251863.260126711</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1051044.662426711</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1107939.028895447</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1112116.147195447</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1103134.561495447</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1555069.555486831</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1863405.463448191</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1698842.383148191</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1642127.700248192</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1586850.998448192</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1614855.842148192</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1565250.096848192</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1619103.941148192</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1435437.042948192</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1440372.463948192</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 FAB ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>-1110220.090675</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1108301.631275</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1094897.050875</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-978906.0412947832</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-317580.9725989769</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-317527.7476989769</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-335691.4017989769</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-541256.9999989769</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-536647.7371989769</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-351296.077498977</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-434939.4052989769</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-334666.744298977</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-109803.8132139569</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-109899.8235139569</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5504.481086043059</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-40514.81401395694</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-51931.37691395694</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>935794.2994267112</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1251863.260126711</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1051044.662426711</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1107939.028895447</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1112116.147195447</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1103134.561495447</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1555069.555486831</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1878673.822148191</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1863405.463448191</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1915002.627648191</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1829322.670248191</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1763533.849648191</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1787747.272748191</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1698842.383148191</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1642127.700248192</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1586850.998448192</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1614855.842148192</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1565250.096848192</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1619103.941148192</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1473298.335148192</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1440372.463948192</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1395959.230348192</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1257813.025448192</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
